--- a/data_output/prism_passive/all_passive_out_emg_gm_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,127 +513,127 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.34258769846332487</v>
+        <v>0.34258771285391854</v>
       </c>
       <c r="C2">
-        <v>0.30228559928215237</v>
+        <v>0.30228559892792389</v>
       </c>
       <c r="D2">
-        <v>2.6345720387777685</v>
+        <v>2.6345720417781782</v>
       </c>
       <c r="E2">
-        <v>0.93673395587856301</v>
+        <v>0.93673395269047632</v>
       </c>
       <c r="F2">
-        <v>16.886263661598697</v>
+        <v>16.886263572792977</v>
       </c>
       <c r="G2">
-        <v>1.2934622487750249</v>
+        <v>1.2934622367278112</v>
       </c>
       <c r="H2">
-        <v>2.9503382022937208</v>
+        <v>2.95033819894548</v>
       </c>
       <c r="I2">
-        <v>0.48164523907723733</v>
+        <v>0.4816452327900983</v>
       </c>
       <c r="J2">
-        <v>0.89344298553829005</v>
+        <v>0.89344297768299474</v>
       </c>
       <c r="K2">
-        <v>5.9377095788482714</v>
+        <v>5.93770944175205</v>
       </c>
       <c r="L2">
-        <v>0.74816126835103991</v>
+        <v>0.74816125910124487</v>
       </c>
       <c r="N2">
-        <v>0.50387933782606775</v>
+        <v>0.50387932453781914</v>
       </c>
       <c r="O2">
-        <v>0.98926711489658337</v>
+        <v>0.98926709754740327</v>
       </c>
       <c r="P2">
-        <v>0.70147011919480751</v>
+        <v>0.70147011259324288</v>
       </c>
       <c r="Q2">
-        <v>0.56777718242088893</v>
+        <v>0.56777718002580913</v>
       </c>
       <c r="S2">
-        <v>14.005183842127952</v>
+        <v>14.005183669655835</v>
       </c>
       <c r="V2">
-        <v>11.747812320607107</v>
+        <v>11.747812412757392</v>
       </c>
       <c r="W2">
-        <v>2.9492927212139124</v>
+        <v>2.9492925765039217</v>
       </c>
       <c r="X2">
-        <v>0.22992117624999836</v>
+        <v>0.22992116905447674</v>
       </c>
       <c r="AA2">
-        <v>0.60354386020815443</v>
+        <v>0.60354385829626001</v>
       </c>
       <c r="AB2">
-        <v>0.17069788893730348</v>
+        <v>0.17069788754361354</v>
       </c>
       <c r="AC2">
-        <v>5.4705472908762642</v>
+        <v>5.470547089352956</v>
       </c>
       <c r="AD2">
-        <v>0.41564758914136118</v>
+        <v>0.41564758383689637</v>
       </c>
       <c r="AE2">
-        <v>4.8164324667068588</v>
+        <v>4.8164324687312279</v>
       </c>
       <c r="AF2">
-        <v>1.2813560840920473</v>
+        <v>1.281356077141506</v>
       </c>
       <c r="AG2">
-        <v>1.1778637591276677</v>
+        <v>1.1778637568977637</v>
       </c>
       <c r="AH2">
-        <v>0.40025578396680278</v>
+        <v>0.40025577233761761</v>
       </c>
       <c r="AI2">
-        <v>1.054909392709479</v>
+        <v>1.0549093976901898</v>
       </c>
       <c r="AJ2">
-        <v>8.5951831061700545</v>
+        <v>8.595183052283291</v>
       </c>
       <c r="AK2">
-        <v>0.67293861972808544</v>
+        <v>0.6729386132094699</v>
       </c>
       <c r="AL2">
-        <v>1.6886100792964225</v>
+        <v>1.6886100148543584</v>
       </c>
       <c r="AM2">
-        <v>0.18420912416911145</v>
+        <v>0.18420912400535153</v>
       </c>
       <c r="AN2">
-        <v>1.0593207128363678</v>
+        <v>1.0593207285909152</v>
       </c>
       <c r="AO2">
-        <v>1.1204756158955393</v>
+        <v>1.1204756054463989</v>
       </c>
       <c r="AQ2">
-        <v>1.5715774449613602</v>
+        <v>1.571577447323049</v>
       </c>
       <c r="AR2">
-        <v>6.0487997728150269</v>
+        <v>6.0487995576750206</v>
       </c>
       <c r="AS2">
-        <v>6.0869839885128352</v>
+        <v>6.0869835858292651</v>
       </c>
       <c r="AU2">
-        <v>10.58907190420306</v>
+        <v>10.589071979747207</v>
       </c>
       <c r="AV2">
-        <v>0.78472821410546234</v>
+        <v>0.78472820118681974</v>
       </c>
       <c r="AW2">
-        <v>0.27167687940053364</v>
+        <v>0.27167688080595165</v>
       </c>
       <c r="AX2">
-        <v>0.36302149359779218</v>
+        <v>0.3630214969266834</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -646,118 +641,118 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.85414391471620876</v>
+        <v>0.85414390647913796</v>
       </c>
       <c r="C3">
-        <v>0.3697659022808773</v>
+        <v>0.36976590508413987</v>
       </c>
       <c r="E3">
-        <v>8.9169148890018217</v>
+        <v>8.9169147185624436</v>
       </c>
       <c r="F3">
-        <v>1.7033306164376376</v>
+        <v>1.7033305701101704</v>
       </c>
       <c r="G3">
-        <v>1.3042210383614155</v>
+        <v>1.3042210255571713</v>
       </c>
       <c r="H3">
-        <v>3.413853705385077</v>
+        <v>3.4138536733073854</v>
       </c>
       <c r="J3">
-        <v>1.2932143483137459</v>
+        <v>1.2932143388235766</v>
       </c>
       <c r="K3">
-        <v>7.0613457036748839</v>
+        <v>7.0613457117126233</v>
       </c>
       <c r="L3">
-        <v>1.2511849274972413</v>
+        <v>1.2511849420233669</v>
       </c>
       <c r="M3">
-        <v>1.2968075309535918</v>
+        <v>1.2969678804968754</v>
       </c>
       <c r="N3">
-        <v>0.40603908438650843</v>
+        <v>0.40603904931766521</v>
       </c>
       <c r="P3">
-        <v>0.37577854418540035</v>
+        <v>0.37577854013575357</v>
       </c>
       <c r="Q3">
-        <v>0.35818067049636426</v>
+        <v>0.35818066641831775</v>
       </c>
       <c r="R3">
-        <v>0.84751518114281088</v>
+        <v>0.84751517921614572</v>
       </c>
       <c r="W3">
-        <v>1.5683828667554178</v>
+        <v>1.5683828456800444</v>
       </c>
       <c r="AA3">
-        <v>0.36361436270744968</v>
+        <v>0.36361436304361028</v>
       </c>
       <c r="AB3">
-        <v>1.402569816734093</v>
+        <v>1.402569823852835</v>
       </c>
       <c r="AC3">
-        <v>5.0635977268839953</v>
+        <v>5.0635977430655217</v>
       </c>
       <c r="AD3">
-        <v>1.0985498868588768</v>
+        <v>1.0985498717551092</v>
       </c>
       <c r="AE3">
-        <v>0.39425892417387476</v>
+        <v>0.39425892050479588</v>
       </c>
       <c r="AF3">
-        <v>0.53422398340252908</v>
+        <v>0.53422397107429531</v>
       </c>
       <c r="AG3">
-        <v>1.7009998840160274</v>
+        <v>1.7009998763164353</v>
       </c>
       <c r="AH3">
-        <v>0.62349445057403519</v>
+        <v>0.62349444834908585</v>
       </c>
       <c r="AI3">
-        <v>1.1139556965609452</v>
+        <v>1.1139556948318865</v>
       </c>
       <c r="AJ3">
-        <v>4.3115388109061303</v>
+        <v>4.3115387936844085</v>
       </c>
       <c r="AK3">
-        <v>0.34011730863765166</v>
+        <v>0.34011730505723869</v>
       </c>
       <c r="AL3">
-        <v>1.6908130669067618</v>
+        <v>1.6908130358098763</v>
       </c>
       <c r="AM3">
-        <v>1.0845370168557249</v>
+        <v>1.0845369198341224</v>
       </c>
       <c r="AN3">
-        <v>1.6539524032427573</v>
+        <v>1.6539524082197778</v>
       </c>
       <c r="AO3">
-        <v>0.53649336391104951</v>
+        <v>0.53649336469496034</v>
       </c>
       <c r="AP3">
-        <v>0.18127486600169931</v>
+        <v>0.18127486326538494</v>
       </c>
       <c r="AQ3">
-        <v>1.2920669648011673</v>
+        <v>1.2920669473937056</v>
       </c>
       <c r="AS3">
-        <v>1.895187787457429</v>
+        <v>1.8951876678541075</v>
       </c>
       <c r="AT3">
-        <v>0.47122252422699268</v>
+        <v>0.47122251957527067</v>
       </c>
       <c r="AU3">
-        <v>11.47276156151268</v>
+        <v>11.472761321140204</v>
       </c>
       <c r="AV3">
-        <v>0.33475229695184527</v>
+        <v>0.33475228980442778</v>
       </c>
       <c r="AW3">
-        <v>0.28587047531113885</v>
+        <v>0.28587047391379844</v>
       </c>
       <c r="AX3">
-        <v>1.0241524087801528</v>
+        <v>1.0241524008232239</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,53 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.34258771285391854</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.30228559892792389</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.6345720417781782</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.93673395269047632</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>16.886263572792977</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.2934622367278112</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.95033819894548</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4816452327900983</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.89344297768299474</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.93770944175205</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.74816125910124487</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.50387932453781914</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.98926709754740327</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.70147011259324288</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.56777718002580913</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
         <v>14.005183669655835</v>
@@ -570,52 +465,55 @@
         <v>0.22992116905447674</v>
       </c>
       <c r="AA2">
-        <v>0.60354385829626001</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.17069788754361354</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.470547089352956</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.41564758383689637</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.8164324687312279</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.281356077141506</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.1778637568977637</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.40025577233761761</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.0549093976901898</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>8.595183052283291</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.6729386132094699</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.6886100148543584</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.18420912400535153</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.0593207285909152</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.1204756054463989</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.571577447323049</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>6.0487995576750206</v>
@@ -635,106 +533,115 @@
       <c r="AX2">
         <v>0.3630214969266834</v>
       </c>
+      <c r="AY2">
+        <v>2.9507639278279427</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>0.85414390647913796</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.36976590508413987</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.9169147185624436</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.7033305701101704</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.3042210255571713</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.4138536733073854</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.2932143388235766</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.0613457117126233</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2511849420233669</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.2969678804968754</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.40603904931766521</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.37577854013575357</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.35818066641831775</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.84751517921614572</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>1.5683828456800444</v>
       </c>
       <c r="AA3">
-        <v>0.36361436304361028</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.402569823852835</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.0635977430655217</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.0985498717551092</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.39425892050479588</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.53422397107429531</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.7009998763164353</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.62349444834908585</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.1139556948318865</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.3115387936844085</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.34011730505723869</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.6908130358098763</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.0845369198341224</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.6539524082197778</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.53649336469496034</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.18127486326538494</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.2920669473937056</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>1.8951876678541075</v>
@@ -753,6 +660,9 @@
       </c>
       <c r="AX3">
         <v>1.0241524008232239</v>
+      </c>
+      <c r="AY3">
+        <v>1.6191364472107246</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.34258769846332487</v>
-      </c>
-      <c r="C2">
-        <v>0.30228559928215237</v>
+        <v>0.54866657396459306</v>
       </c>
       <c r="D2">
-        <v>2.4360245439271928</v>
+        <v>1.0593207285909152</v>
       </c>
       <c r="E2">
-        <v>0.93673395587856301</v>
+        <v>1.571577447323049</v>
       </c>
       <c r="F2">
         <v>16.886263661598697</v>
@@ -645,14 +637,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.85414391471620876</v>
-      </c>
       <c r="C3">
-        <v>0.3697659022808773</v>
+        <v>0.84751517921614572</v>
+      </c>
+      <c r="D3">
+        <v>1.6539524082197778</v>
       </c>
       <c r="E3">
-        <v>8.9169148890018217</v>
+        <v>1.0234724771587129</v>
       </c>
       <c r="F3">
         <v>1.7033306164376376</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.34258769846332487</v>
-      </c>
       <c r="C2">
-        <v>0.30228559928215237</v>
+        <v>0.54866657396459306</v>
       </c>
       <c r="D2">
-        <v>2.4360245439271928</v>
+        <v>0.18420912400535153</v>
       </c>
       <c r="E2">
-        <v>0.93673395587856301</v>
+        <v>1.0593207285909152</v>
       </c>
       <c r="F2">
         <v>16.886263661598697</v>
@@ -646,13 +638,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.85414391471620876</v>
-      </c>
-      <c r="C3">
-        <v>0.3697659022808773</v>
+        <v>0.40603904931766521</v>
+      </c>
+      <c r="D3">
+        <v>1.0845369198341224</v>
       </c>
       <c r="E3">
-        <v>8.9169148890018217</v>
+        <v>1.6539524082197778</v>
       </c>
       <c r="F3">
         <v>1.7033306164376376</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,125 +512,128 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.34258771285391854</v>
+      </c>
       <c r="C2">
+        <v>0.30228559892792389</v>
+      </c>
+      <c r="D2">
+        <v>2.4360245225495407</v>
+      </c>
+      <c r="E2">
+        <v>0.93673395269047632</v>
+      </c>
+      <c r="F2">
+        <v>16.886263572792977</v>
+      </c>
+      <c r="G2">
+        <v>1.2934622367278112</v>
+      </c>
+      <c r="H2">
+        <v>2.95033819894548</v>
+      </c>
+      <c r="I2">
+        <v>0.4816452327900983</v>
+      </c>
+      <c r="J2">
+        <v>0.89344297768299474</v>
+      </c>
+      <c r="K2">
+        <v>5.93770944175205</v>
+      </c>
+      <c r="L2">
+        <v>0.74816125910124487</v>
+      </c>
+      <c r="O2">
         <v>0.54866657396459306</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.70147011259324288</v>
+      </c>
+      <c r="Q2">
+        <v>0.56777718002580913</v>
+      </c>
+      <c r="S2">
+        <v>14.005183669655835</v>
+      </c>
+      <c r="V2">
+        <v>11.747812412757392</v>
+      </c>
+      <c r="W2">
+        <v>2.9492925765039217</v>
+      </c>
+      <c r="X2">
+        <v>0.22992116905447674</v>
+      </c>
+      <c r="AA2">
+        <v>0.60354385829626001</v>
+      </c>
+      <c r="AB2">
+        <v>0.17069788754361542</v>
+      </c>
+      <c r="AC2">
+        <v>5.470547089352956</v>
+      </c>
+      <c r="AD2">
+        <v>0.41564758383689637</v>
+      </c>
+      <c r="AE2">
+        <v>4.8164324687312279</v>
+      </c>
+      <c r="AF2">
+        <v>1.281356077141506</v>
+      </c>
+      <c r="AG2">
+        <v>1.1778637568977637</v>
+      </c>
+      <c r="AH2">
+        <v>0.7045542050682968</v>
+      </c>
+      <c r="AI2">
+        <v>1.0549093976901898</v>
+      </c>
+      <c r="AJ2">
+        <v>8.595183052283291</v>
+      </c>
+      <c r="AK2">
+        <v>0.6729386132094699</v>
+      </c>
+      <c r="AL2">
+        <v>1.6886100148543584</v>
+      </c>
+      <c r="AM2">
         <v>0.18420912400535153</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.0593207285909152</v>
       </c>
-      <c r="F2">
-        <v>16.886263661598697</v>
-      </c>
-      <c r="G2">
-        <v>1.2934622487750249</v>
-      </c>
-      <c r="H2">
-        <v>2.9503382022937208</v>
-      </c>
-      <c r="I2">
-        <v>0.48164523907723733</v>
-      </c>
-      <c r="J2">
-        <v>0.89344298553829005</v>
-      </c>
-      <c r="K2">
-        <v>5.9377095788482714</v>
-      </c>
-      <c r="L2">
-        <v>0.74816126835103991</v>
-      </c>
-      <c r="O2">
-        <v>0.54866659428960418</v>
-      </c>
-      <c r="P2">
-        <v>0.70147011919480751</v>
-      </c>
-      <c r="Q2">
-        <v>0.56777718242088893</v>
-      </c>
-      <c r="S2">
-        <v>14.005183842127952</v>
-      </c>
-      <c r="V2">
-        <v>11.747812320607107</v>
-      </c>
-      <c r="W2">
-        <v>2.9492927212139124</v>
-      </c>
-      <c r="X2">
-        <v>0.22992117624999836</v>
-      </c>
-      <c r="AA2">
-        <v>0.60354386020815443</v>
-      </c>
-      <c r="AB2">
-        <v>0.17069788893730281</v>
-      </c>
-      <c r="AC2">
-        <v>5.4705472908762642</v>
-      </c>
-      <c r="AD2">
-        <v>0.41564758914136118</v>
-      </c>
-      <c r="AE2">
-        <v>4.8164324667068588</v>
-      </c>
-      <c r="AF2">
-        <v>1.2813560840920473</v>
-      </c>
-      <c r="AG2">
-        <v>1.1778637591276677</v>
-      </c>
-      <c r="AH2">
-        <v>0.70455422529826162</v>
-      </c>
-      <c r="AI2">
-        <v>1.054909392709479</v>
-      </c>
-      <c r="AJ2">
-        <v>8.5951831061700545</v>
-      </c>
-      <c r="AK2">
-        <v>0.67293861972808544</v>
-      </c>
-      <c r="AL2">
-        <v>1.6886100792964225</v>
-      </c>
-      <c r="AM2">
-        <v>0.18420912416911145</v>
-      </c>
-      <c r="AN2">
-        <v>1.0593207128363678</v>
-      </c>
       <c r="AO2">
-        <v>1.1204756158955393</v>
+        <v>1.1204756054463989</v>
       </c>
       <c r="AQ2">
-        <v>1.5715774449613602</v>
+        <v>1.571577447323049</v>
       </c>
       <c r="AR2">
-        <v>6.0487997728150269</v>
+        <v>6.0487995576750206</v>
       </c>
       <c r="AS2">
-        <v>6.0869839885128352</v>
+        <v>6.0869835858292651</v>
       </c>
       <c r="AU2">
-        <v>10.58907190420306</v>
+        <v>10.589071979747207</v>
       </c>
       <c r="AV2">
-        <v>0.78472821410546234</v>
+        <v>0.78472820118681974</v>
       </c>
       <c r="AW2">
-        <v>0.27167687940053364</v>
+        <v>0.27167688080595165</v>
       </c>
       <c r="AX2">
-        <v>0.36302149359777852</v>
+        <v>0.36302149692668118</v>
       </c>
       <c r="AY2">
-        <v>2.9507640206766972</v>
+        <v>2.9507639278279427</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -638,121 +641,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.85414390647913796</v>
+      </c>
+      <c r="C3">
+        <v>0.36976590508413987</v>
+      </c>
+      <c r="E3">
+        <v>8.9169147185624436</v>
+      </c>
+      <c r="F3">
+        <v>1.7033305701101704</v>
+      </c>
+      <c r="G3">
+        <v>1.3042210255571713</v>
+      </c>
+      <c r="H3">
+        <v>3.4138536733073854</v>
+      </c>
+      <c r="J3">
+        <v>1.2932143388235766</v>
+      </c>
+      <c r="K3">
+        <v>7.0613457117126233</v>
+      </c>
+      <c r="L3">
+        <v>1.2511849420233669</v>
+      </c>
+      <c r="M3">
+        <v>1.2969678804968754</v>
+      </c>
+      <c r="N3">
         <v>0.40603904931766521</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.37577854013575357</v>
+      </c>
+      <c r="Q3">
+        <v>0.35818066641831775</v>
+      </c>
+      <c r="R3">
+        <v>0.84751517921614572</v>
+      </c>
+      <c r="W3">
+        <v>1.6076312590548241</v>
+      </c>
+      <c r="AA3">
+        <v>0.36361436304361028</v>
+      </c>
+      <c r="AB3">
+        <v>1.402569823852835</v>
+      </c>
+      <c r="AC3">
+        <v>1.689392101653971</v>
+      </c>
+      <c r="AD3">
+        <v>1.0985498717551092</v>
+      </c>
+      <c r="AE3">
+        <v>0.39425892050479588</v>
+      </c>
+      <c r="AF3">
+        <v>0.53422397107429398</v>
+      </c>
+      <c r="AG3">
+        <v>1.7009998763164353</v>
+      </c>
+      <c r="AH3">
+        <v>0.28925584396663456</v>
+      </c>
+      <c r="AI3">
+        <v>1.1139556948318865</v>
+      </c>
+      <c r="AJ3">
+        <v>4.3115387936844085</v>
+      </c>
+      <c r="AK3">
+        <v>0.34011730505723869</v>
+      </c>
+      <c r="AL3">
+        <v>1.6908130358098763</v>
+      </c>
+      <c r="AM3">
         <v>1.0845369198341224</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>1.6539524082197778</v>
       </c>
-      <c r="F3">
-        <v>1.7033306164376376</v>
-      </c>
-      <c r="G3">
-        <v>1.3042210383614155</v>
-      </c>
-      <c r="H3">
-        <v>3.413853705385077</v>
-      </c>
-      <c r="J3">
-        <v>1.2932143483137459</v>
-      </c>
-      <c r="K3">
-        <v>7.0613457036748839</v>
-      </c>
-      <c r="L3">
-        <v>1.2511849274972413</v>
-      </c>
-      <c r="M3">
-        <v>1.2968075309535918</v>
-      </c>
-      <c r="N3">
-        <v>0.40603908438650843</v>
-      </c>
-      <c r="P3">
-        <v>0.37577854418540035</v>
-      </c>
-      <c r="Q3">
-        <v>0.35818067049636426</v>
-      </c>
-      <c r="R3">
-        <v>0.84751518114281088</v>
-      </c>
-      <c r="W3">
-        <v>1.6076312675473905</v>
-      </c>
-      <c r="AA3">
-        <v>0.36361436270744968</v>
-      </c>
-      <c r="AB3">
-        <v>1.402569816734093</v>
-      </c>
-      <c r="AC3">
-        <v>1.6893920900503976</v>
-      </c>
-      <c r="AD3">
-        <v>1.0985498868588768</v>
-      </c>
-      <c r="AE3">
-        <v>0.39425892417387476</v>
-      </c>
-      <c r="AF3">
-        <v>0.53422398340252497</v>
-      </c>
-      <c r="AG3">
-        <v>1.7009998840160274</v>
-      </c>
-      <c r="AH3">
-        <v>0.28925585121695085</v>
-      </c>
-      <c r="AI3">
-        <v>1.1139556965609452</v>
-      </c>
-      <c r="AJ3">
-        <v>4.3115388109061303</v>
-      </c>
-      <c r="AK3">
-        <v>0.34011730863765166</v>
-      </c>
-      <c r="AL3">
-        <v>1.6908130669067618</v>
-      </c>
-      <c r="AM3">
-        <v>1.0845370168557249</v>
-      </c>
-      <c r="AN3">
-        <v>1.6539524032427573</v>
-      </c>
       <c r="AO3">
-        <v>0.53649336391104951</v>
+        <v>0.53649336469496034</v>
       </c>
       <c r="AP3">
-        <v>0.16467712676387913</v>
+        <v>0.16467712313331512</v>
       </c>
       <c r="AQ3">
-        <v>1.023472502322909</v>
+        <v>1.0234724771587129</v>
       </c>
       <c r="AS3">
-        <v>1.895187787457429</v>
+        <v>1.8951876678541075</v>
       </c>
       <c r="AT3">
-        <v>0.47122252422699268</v>
+        <v>0.47122251957527067</v>
       </c>
       <c r="AU3">
-        <v>11.47276156151268</v>
+        <v>11.472761321140204</v>
       </c>
       <c r="AV3">
-        <v>0.33475229695184527</v>
+        <v>0.33475228980442778</v>
       </c>
       <c r="AW3">
-        <v>0.28587047531113885</v>
+        <v>0.28587047391379844</v>
       </c>
       <c r="AX3">
-        <v>1.0241524087801528</v>
+        <v>1.0241524008232239</v>
       </c>
       <c r="AY3">
-        <v>1.6191364742897789</v>
+        <v>1.6191364472107246</v>
       </c>
     </row>
   </sheetData>
